--- a/output/kpi_validated.xlsx
+++ b/output/kpi_validated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>The study was for the monotherapy treatment of major depressive disorder and did not achieve statistical significance on the primary endpoint (change from baseline in the 17-item Hamilton Depression Rating Scale total score at Day 15).</t>
+          <t>The study did not achieve statistical significance on the primary endpoint of change from baseline in the 17-item Hamilton Depression Rating Scale total score at Day 15, or on any secondary endpoints.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Did not meet any secondary endpoints.</t>
+          <t>Did not meet any secondary endpoints</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Topline</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0001689548-22-000038</t>
+          <t>0001689548-22-000111</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>In April 2022, the Investigational New Drug (IND) application for the study of PRAX-222 was placed on clinical hold by the FDA. The company had not received the full details on the reasons for the hold at the time of the report.</t>
+          <t>In April 2022, the Investigational New Drug application for the study of PRAX-222 was placed on clinical hold by the FDA. The company later submitted additional documentation from a toxicology study to address the hold.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Investigational New Drug application</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>On Hold</t>
+          <t>not specified</t>
         </is>
       </c>
     </row>
@@ -807,27 +807,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0001689548-22-000111</t>
+          <t>0001689548-25-000058</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRAX-222</t>
+          <t>ulixacaltamide</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>essential tremor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Essential3 program (Study 1 and Study 2)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -837,22 +837,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Received a letter from the FDA in May 2022 with additional information on the clinical hold. The company submitted additional documentation from a 13-week non-human primate toxicology study to support the proposed starting dose, with the expectation that the IND could be cleared.</t>
+          <t>In February 2025, based on a pre-planned interim analysis of Study 1, the IDMC recommended that the study be stopped for futility, as it was unlikely to meet the primary efficacy endpoint. The company has decided to continue both Study 1 and Study 2 to completion.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Futility</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Clinical hold letter received</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Investigational New Drug application</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -912,12 +912,12 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Topline</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>On Hold</t>
+          <t>Ongoing</t>
         </is>
       </c>
     </row>
@@ -934,22 +934,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ulixacaltamide</t>
+          <t>vormatrigine</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>essential tremor</t>
+          <t>ENERGY Program</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Essential3 (Study 1)</t>
+          <t>Photo-Paroxysmal Response (PPR) study</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -964,17 +964,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Based on a pre-planned interim analysis of Study 1, the IDMC recommended the study be stopped for futility as it was unlikely to meet the primary efficacy endpoint. The company decided to continue the study to completion.</t>
+          <t>Announced positive results from the PPR study in patients with epilepsy, which is part of the ENERGY program.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Futility</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>electrophysiology markers</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Interim</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
@@ -1056,22 +1056,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ulixacaltamide</t>
+          <t>vormatrigine</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>essential tremor</t>
+          <t>ENERGY Program</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Essential3 (Study 1 and Study 2)</t>
+          <t>RADIANT</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2025H1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Following an interim analysis where the IDMC recommended stopping Study 1 for futility, the company decided to continue both Study 1 and Study 2 to completion. Topline results for both studies are expected in Q3 2025. A decision on an NDA submission will be made after analyzing the final results.</t>
+          <t>The RADIANT study is an open label eight-week study in patients with focal onset seizures or generalized epilepsy and is part of the ENERGY program.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>open label</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Enrolling</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0001689548-24-000101</t>
+          <t>0001689548-25-000058</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>epilepsy</t>
+          <t>ENERGY Program</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Photo-Paroxysmal Response study</t>
+          <t>POWER1 study</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1203,22 +1203,22 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2025H2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Announced positive results from the Photo-Paroxysmal Response (PPR) study, a proof-of-concept study for vormatrigine in epilepsy.</t>
+          <t>A double-blind, placebo-controlled, 12-week study in focal onset seizures. The study was initiated in Q4 2024.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Met</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1238,17 +1238,17 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>double-blind, placebo-controlled</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>electrophysiology markers</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Initiated</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>focal onset seizures or generalized epilepsy</t>
+          <t>ENERGY Program</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RADIANT</t>
+          <t>POWER2 study</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1330,12 +1330,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025H1</t>
+          <t>2025H2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>The RADIANT study is an open-label eight-week study that is part of the ENERGY program.</t>
+          <t>A third efficacy study in the ENERGY program. Enrollment is planned to begin in the second half of 2025.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>open label</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1400,12 +1400,12 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Topline</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Enrolling</t>
+          <t>Planned</t>
         </is>
       </c>
     </row>
@@ -1417,17 +1417,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-24-000101</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>vormatrigine</t>
+          <t>relutrigine</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>focal onset seizures</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>POWER 1</t>
+          <t>EMBOLD study (Cohort 1)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1447,22 +1447,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025H2</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>The POWER 1 study is a double-blind, placebo-controlled, 12-week study in focal onset seizures. The study was initiated in Q4 2024.</t>
+          <t>Announced positive topline results from the first cohort of the EMBOLD study.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>double-blind, placebo-controlled</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Placebo</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
@@ -1544,12 +1544,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>vormatrigine</t>
+          <t>relutrigine</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>epilepsy</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>POWER 2</t>
+          <t>EMBOLD study (Cohort 2)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>2026H1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>The POWER 2 study is a third efficacy study for vormatrigine, with enrollment planned to begin in the second half of 2025.</t>
+          <t>Enrollment of the second cohort has been initiated.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Topline</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>Enrolling</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0001689548-24-000101</t>
+          <t>0001689548-25-000058</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>developmental and epileptic encephalopathies (DEE)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EMBOLD study (first cohort)</t>
+          <t>EMERALD study</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1691,22 +1691,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>mid-2025</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Announced positive topline results from the first cohort of the EMBOLD study.</t>
+          <t>Plan to initiate the EMERALD study in a broader developmental and epileptic encephalopathies (DEE) patient population in mid-2025.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Met</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>Topline</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Planned</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>relutrigine</t>
+          <t>elsunersen</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Pivotal</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EMBOLD study (second cohort)</t>
+          <t>EMBRAVE study</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Enrollment of the second cohort has been initiated, with topline results expected no later than the first half of 2026.</t>
+          <t>Results from Part 1 were shared in Q4 2023. The study is a global confirmatory study. Cohort 2 is currently enrolling in Brazil, with topline results expected in H1 2026. The company is also pursuing global regulatory interactions to expand the pivotal program.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Brazil, Global</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1910,12 +1910,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>relutrigine</t>
+          <t>vormatrigine</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>developmental and epileptic encephalopathies</t>
+          <t>focal onset seizures</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>EMERALD study</t>
+          <t>POWER 1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1940,12 +1940,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025H1</t>
+          <t>2025H2</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Plan to initiate the EMERALD study in a broader developmental and epileptic encephalopathies (DEE) patient population in mid-2025.</t>
+          <t>The POWER 1 study is a 12-week study in focal onset seizures and is part of the ENERGY program.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>double-blind, placebo-controlled</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2010,12 +2010,12 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Topline</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>Ongoing</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2027,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0001689548-24-000101</t>
+          <t>0001689548-25-000058</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>elsunersen</t>
+          <t>vormatrigine</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Epilepsy</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EMBRAVE study (Part 1)</t>
+          <t>POWER 2</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2057,17 +2057,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Shared results from Part 1 of the EMBRAVE study.</t>
+          <t>The POWER 2 study is the third efficacy study in the ENERGY program, with enrollment planned to begin in the second half of 2025.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2132,12 +2132,12 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Results</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Planned</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>elsunersen</t>
+          <t>relutrigine</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EMBRAVE study (second cohort)</t>
+          <t>EMBOLD study (first cohort)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2179,22 +2179,22 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026H1</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Currently enrolling the second cohort of the EMBRAVE study in Brazil, with topline results expected in the first half of 2026.</t>
+          <t>Announced positive topline results from the first cohort of the EMBOLD study.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Enrolling</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>vormatrigine</t>
+          <t>relutrigine</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>focal onset seizures</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>POWER 1</t>
+          <t>EMBOLD study (second cohort)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2306,12 +2306,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025H2</t>
+          <t>2026H1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>The POWER 1 study is a double-blind, placebo-controlled, 12-week study in focal onset seizures.</t>
+          <t>Enrollment of the second cohort has been initiated, with topline results expected no later than the first half of 2026.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>double-blind, placebo-controlled, 12-week</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>placebo</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Enrolling</t>
         </is>
       </c>
     </row>
@@ -2398,22 +2398,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>vormatrigine</t>
+          <t>ulixacaltamide</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>epilepsy</t>
+          <t>essential tremor</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>POWER 2</t>
+          <t>Essential 3 (Study 1)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2423,22 +2423,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>The company plans to begin enrollment in the POWER 2 study, a third efficacy study, in the second half of 2025.</t>
+          <t>IDMC recommended stopping Study 1 for futility based on a pre-planned interim analysis in February 2025, as it was unlikely to meet the primary efficacy endpoint. The company decided to continue the study to completion.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Not Met</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2498,12 +2498,12 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Interim</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>Ongoing</t>
         </is>
       </c>
     </row>
@@ -2515,27 +2515,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0001689548-24-000101</t>
+          <t>0001689548-25-000058</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>relutrigine</t>
+          <t>ulixacaltamide</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>essential tremor</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>EMBOLD (first cohort)</t>
+          <t>Essential 3 (Study 1 and Study 2)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2545,22 +2545,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2025Q3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Announced positive topline results from the first cohort of the EMBOLD study.</t>
+          <t>Despite the interim analysis futility recommendation for Study 1, the company will continue both Study 1 and Study 2 to completion, with topline results expected in Q3 2025. An NDA submission decision will follow.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Met</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>NDA submission decision to be made after final results</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Ongoing</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>relutrigine</t>
+          <t>elsunersen</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>EMBOLD (second cohort)</t>
+          <t>EMBRAVE study (second cohort)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Enrollment of the second cohort has been initiated, with topline results expected no later than the first half of 2026.</t>
+          <t>The second cohort of the EMBRAVE study is currently enrolling in Brazil, with topline results expected in the first half of 2026.</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2746,1470 +2746,6 @@
         </is>
       </c>
       <c r="X19" t="inlineStr">
-        <is>
-          <t>Enrolling</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Praxis Precision Medicines Inc</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0001689548-25-000058</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>relutrigine</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>developmental and epileptic encephalopathies</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>EMERALD</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>The company plans to initiate the EMERALD study in a broader developmental and epileptic encephalopathies (DEE) patient population in mid-2025.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>Planned</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Praxis Precision Medicines Inc</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0001689548-22-000111</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>PRAX-114</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>major depressive disorder</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Phase 2/3</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Aria Study</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2022-06</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>In June 2022, announced that the Phase 2/3 Aria Study for monotherapy treatment of major depressive disorder did not achieve statistical significance on the primary endpoint (change from baseline in the 17-item Hamilton Depression Rating Scale total score at Day 15) or any secondary endpoints.</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Not Met</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Did not achieve statistical significance on any secondary endpoints.</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Praxis Precision Medicines Inc</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0001689548-22-000111</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>PRAX-222</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2022-04</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>In April 2022, the IND for PRAX-222 was placed on clinical hold by the FDA. A letter was received in May 2022, and the company believes the hold could be lifted after submitting additional toxicology study documentation.</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>IND placed on clinical hold by FDA in April 2022. Letter with details received in May 2022. Company believes IND could be cleared upon submission of additional documentation.</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>On Hold</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Praxis Precision Medicines Inc</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0001689548-24-000101</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>elsunersen</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>EMBRAVE (Part 1)</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2023Q4</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Shared results from Part 1 of the EMBRAVE study in Q4 2023.</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Praxis Precision Medicines Inc</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0001689548-25-000058</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>elsunersen</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>EMBRAVE (second cohort)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2026H1</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Currently enrolling the second cohort of the EMBRAVE study in Brazil, with topline results expected in the first half of 2026.</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Topline</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>Enrolling</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Praxis Precision Medicines Inc</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0001689548-25-000058</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>ulixacaltamide</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>essential tremor</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Phase 3</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Essential3 Study 1</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2025-02</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Shared results of a pre-planned interim analysis in Feb 2025. The IDMC recommended stopping the study for futility as it was unlikely to meet the primary efficacy endpoint. The company decided to continue the study to completion.</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Not Met</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Interim</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Praxis Precision Medicines Inc</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0001689548-25-000058</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>ulixacaltamide</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>essential tremor</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Phase 3</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Essential3 (Study 1 and Study 2)</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2025Q3</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Following an IDMC recommendation to stop Study 1 for futility based on an interim analysis, the company decided to continue both Study 1 and Study 2 to completion, with topline results for both expected in Q3 2025.</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Topline</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Praxis Precision Medicines Inc</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>0001689548-24-000101</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>vormatrigine</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>epilepsy</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Photo-Paroxysmal Response study</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2024Q1</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Announced positive results from the Photo-Paroxysmal Response (PPR) study in Q1 2024.</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Met</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Praxis Precision Medicines Inc</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>0001689548-25-000058</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>vormatrigine</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>epilepsy</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>EMPOWER</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Initiated the EMPOWER study, an observational study of vormatrigine in patients with epilepsy, in Q3 2024.</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>observational</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Praxis Precision Medicines Inc</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>0001689548-25-000058</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>vormatrigine</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>focal onset seizures or generalized epilepsy</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>RADIANT</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>mid-2025</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>The RADIANT study, an open label eight-week study in patients with focal onset seizures or generalized epilepsy, is currently enrolling, with topline results expected by mid-year 2025.</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>open label, eight-week</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Topline</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>Enrolling</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Praxis Precision Medicines Inc</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>0001689548-24-000101</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>elsunersen</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>EMBRAVE (Part 1)</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2023Q4</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Results from Part 1 of the EMBRAVE study were shared in the fourth quarter of 2023.</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Praxis Precision Medicines Inc</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>0001689548-25-000058</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>elsunersen</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Pivotal Phase</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>EMBRAVE (second cohort)</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2026H1</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>The second cohort of the EMBRAVE study is currently enrolling in Brazil, with topline results expected in the first half of 2026.</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>Topline</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
         <is>
           <t>Enrolling</t>
         </is>

--- a/output/kpi_validated.xlsx
+++ b/output/kpi_validated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,27 +563,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0001689548-22-000111</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRAX-114</t>
+          <t>vornatrigine</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>major depressive disorder</t>
+          <t>focal onset seizures</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Phase 2/3</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Aria Study</t>
+          <t>POWER 3 study</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -593,22 +593,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2026H1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>The study did not achieve statistical significance on the primary endpoint of change from baseline in the 17-item Hamilton Depression Rating Scale total score at Day 15, or on any secondary endpoints.</t>
+          <t>This trial will assess vornatrigine as a single-agent treatment.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Not Met</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Did not meet any secondary endpoints</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Planned</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0001689548-22-000111</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRAX-222</t>
+          <t>relutrigine</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>EMBOLD study (first cohort)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -715,22 +715,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Announced</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>In April 2022, the Investigational New Drug application for the study of PRAX-222 was placed on clinical hold by the FDA. The company later submitted additional documentation from a toxicology study to address the hold.</t>
+          <t>Updated data from the study's open-label extension through 11 months was disclosed in May 2025.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Clinical Hold</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>open-label extension</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -790,12 +790,12 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Topline</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
@@ -807,27 +807,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ulixacaltamide</t>
+          <t>relutrigine</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>essential tremor</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Essential3 program (Study 1 and Study 2)</t>
+          <t>EMBOLD study (second cohort)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -837,22 +837,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Expected</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2026H1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>In February 2025, based on a pre-planned interim analysis of Study 1, the IDMC recommended that the study be stopped for futility, as it was unlikely to meet the primary efficacy endpoint. The company has decided to continue both Study 1 and Study 2 to completion.</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Futility</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Enrolling</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>vormatrigine</t>
+          <t>relutrigine</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ENERGY Program</t>
+          <t>seizures associated with SCN2A and SCN8A developmental and epileptic encephalopathies</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Photo-Paroxysmal Response (PPR) study</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -959,22 +959,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Announced</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Announced positive results from the PPR study in patients with epilepsy, which is part of the ENERGY program.</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Breakthrough Therapy designation granted</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>electrophysiology markers</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Breakthrough Therapy</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>not specified</t>
         </is>
       </c>
     </row>
@@ -1051,17 +1051,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>vormatrigine</t>
+          <t>relutrigine</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENERGY Program</t>
+          <t>developmental and epileptic encephalopathies</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RADIANT</t>
+          <t>EMERALD study</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1081,17 +1081,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Expected</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025H1</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>The RADIANT study is an open label eight-week study in patients with focal onset seizures or generalized epilepsy and is part of the ENERGY program.</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>open label</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Topline</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1173,27 +1173,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>vormatrigine</t>
+          <t>ulixacaltamide</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENERGY Program</t>
+          <t>Essential 3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>POWER1 study</t>
+          <t>Study 1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025H2</t>
+          <t>2025-early-fall</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>A double-blind, placebo-controlled, 12-week study in focal onset seizures. The study was initiated in Q4 2024.</t>
+          <t>The company is making adjustments to the analysis of the Essential3 program based upon review of blinded data. The decision about whether the data supports the submission of an NDA will be made after analyzing the final results for Study 1 and Study 2.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>double-blind, placebo-controlled</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Placebo</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Topline</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Initiated</t>
+          <t>Ongoing</t>
         </is>
       </c>
     </row>
@@ -1295,17 +1295,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>vormatrigine</t>
+          <t>elsunersen</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ENERGY Program</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>POWER2 study</t>
+          <t>EMBRAVE study (Part 1)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1325,17 +1325,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025H2</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>A third efficacy study in the ENERGY program. Enrollment is planned to begin in the second half of 2025.</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
@@ -1417,12 +1417,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0001689548-24-000101</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>relutrigine</t>
+          <t>elsunersen</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>EMBOLD study (Cohort 1)</t>
+          <t>EMBRAVE study (second cohort)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1447,22 +1447,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2026H1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Announced positive topline results from the first cohort of the EMBOLD study.</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Enrolling</t>
         </is>
       </c>
     </row>
@@ -1539,27 +1539,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>relutrigine</t>
+          <t>elsunersen</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>SCN2A gain-of-function DEE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EMBOLD study (Cohort 2)</t>
+          <t>EMBRAVE 3</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026H1</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Enrollment of the second cohort has been initiated.</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>registrational</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1644,44 +1644,44 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Topline</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Enrolling</t>
+          <t>Ongoing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Praxis Precision Medicines Inc</t>
+          <t>Mind Medicine (MindMed) Inc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0000950170-24-055681</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>relutrigine</t>
+          <t>MM120</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>developmental and epileptic encephalopathies (DEE)</t>
+          <t>GAD</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Phase 2b</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EMERALD study</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1691,17 +1691,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>mid-2025</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Plan to initiate the EMERALD study in a broader developmental and epileptic encephalopathies (DEE) patient population in mid-2025.</t>
+          <t>The company plans to hold an End-of-Phase 2 meeting with the FDA in the second quarter of 2024 and expect to initiate Phase 3 clinical trials in the second half of 2024.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Breakthrough designation granted</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Met its key secondary endpoint</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Breakthrough Therapy</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1761,69 +1761,69 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>12-week topline data demonstrated clinically and statistically significant durability of activity observed through Week 12.</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Topline</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Praxis Precision Medicines Inc</t>
+          <t>Mind Medicine (MindMed) Inc</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0000950170-24-055681</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>elsunersen</t>
+          <t>MM402</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>autism spectrum disorder</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pivotal</t>
+          <t>Phase 1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EMBRAVE study</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>healthy volunteers</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Expected</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026H1</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Results from Part 1 were shared in Q4 2023. The study is a global confirmatory study. Cohort 2 is currently enrolling in Brazil, with topline results expected in H1 2026. The company is also pursuing global regulatory interactions to expand the pivotal program.</t>
+          <t>This is an investigator-initiated trial (IIT) conducted by University Hospital Basel (UHB) to compare the tolerability, pharmacokinetics and acute subjective, physiological and endocrine effects of R(-)-MDMA, S(+)-MDMA and R/S-MDMA.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>investigator-initiated</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1858,12 +1858,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>S(+)-MDMA and R/S-MDMA</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Brazil, Global</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1893,29 +1893,29 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Enrolling</t>
+          <t>Ongoing</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Praxis Precision Medicines Inc</t>
+          <t>PTC Therapeutics Inc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001070081-23-000050</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>vormatrigine</t>
+          <t>sepiapterin</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>focal onset seizures</t>
+          <t>PKU</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>POWER 1</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Expected</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025H2</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>The POWER 1 study is a 12-week study in focal onset seizures and is part of the ENERGY program.</t>
+          <t>Following the placebo-controlled study, patients were eligible to enroll in a long-term open-label study, which is still ongoing and will evaluate long-term safety, durability and Phe tolerance.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1955,12 +1955,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>no serious adverse events</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>pre-NDA meeting scheduled</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>double-blind, placebo-controlled</t>
+          <t>placebo-controlled</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Topline</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -2022,77 +2022,77 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Praxis Precision Medicines Inc</t>
+          <t>PTC Therapeutics Inc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001070081-23-000050</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>vormatrigine</t>
+          <t>vatiquinone</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Epilepsy</t>
+          <t>Friedreich ataxia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>POWER 2</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>children and young adults</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Announced</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>The POWER 2 study is the third efficacy study in the ENERGY program, with enrollment planned to begin in the second half of 2025.</t>
+          <t>The company has been granted a Type C meeting with the FDA to discuss the potential for an NDA submission.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Not Met</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>vatiquinone was well tolerated</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Type C meeting granted</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Demonstrated significant benefit on key disease subscales and secondary endpoints.</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>registration-directed</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2127,74 +2127,74 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>vatiquinone treatment did demonstrate significant benefit on key disease subscales and secondary endpoints. In the population of subjects that completed the study protocol, significance was reached in the mFARS endpoint and several secondary endpoints.</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Topline</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Praxis Precision Medicines Inc</t>
+          <t>PTC Therapeutics Inc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001070081-23-000050</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>relutrigine</t>
+          <t>vatiquinone</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>mitochondrial disease associated seizures</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Phase 2/3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EMBOLD study (first cohort)</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>children</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Announced</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Announced positive topline results from the first cohort of the EMBOLD study.</t>
+          <t>The company has decided to deprioritize the program for vatiquinone in children with mitochondrial disease associated seizures given the results of the Phase 2/3 study.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Not Met</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>placebo-controlled</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Terminated</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Praxis Precision Medicines Inc</t>
+          <t>PTC Therapeutics Inc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001070081-23-000050</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>relutrigine</t>
+          <t>utreloxastat</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>amyotrophic lateral sclerosis</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Phase 2</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EMBOLD study (second cohort)</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2301,17 +2301,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Expected</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026H1</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Enrollment of the second cohort has been initiated, with topline results expected no later than the first half of 2026.</t>
+          <t>A Phase 1 trial in healthy volunteers to evaluate the safety and pharmacology of utreloxastat was completed in the third quarter of 2021. Utreloxastat was found to be well-tolerated while demonstrating predictable pharmacology.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>no reported serious adverse events</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Topline</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2388,22 +2388,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Praxis Precision Medicines Inc</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0000059478-24-000245</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ulixacaltamide</t>
+          <t>Tirzepatide</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>essential tremor</t>
+          <t>Heart failure with preserved ejection fraction</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Essential 3 (Study 1)</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2428,17 +2428,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>IDMC recommended stopping Study 1 for futility based on a pre-planned interim analysis in February 2025, as it was unlikely to meet the primary efficacy endpoint. The company decided to continue the study to completion.</t>
+          <t>Announced in 2024 that Phase 3 trial met all primary and key secondary endpoints.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Not Met</t>
+          <t>Met</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Met all key secondary endpoints</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Interim</t>
+          <t>Topline</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -2510,32 +2510,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Praxis Precision Medicines Inc</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0000059478-24-000245</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ulixacaltamide</t>
+          <t>Tirzepatide</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>essential tremor</t>
+          <t>Metabolic dysfunction-associated steatohepatitis</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>Phase 2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Essential 3 (Study 1 and Study 2)</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2545,22 +2545,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Despite the interim analysis futility recommendation for Study 1, the company will continue both Study 1 and Study 2 to completion, with topline results expected in Q3 2025. An NDA submission decision will follow.</t>
+          <t>Announced in 2024 that Phase 2 trial met its primary endpoint.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Met</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>NDA submission decision to be made after final results</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2625,39 +2625,39 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Praxis Precision Medicines Inc</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0000059478-24-000245</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>elsunersen</t>
+          <t>Insulin Efsitora Alfa</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Type 1 and type 2 diabetes</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>EMBRAVE study (second cohort)</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2667,85 +2667,207 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Announced in 2024 that five Phase 3 trials met primary endpoints.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Met</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0000059478-24-000245</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Lebrikizumab</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>AR (perennial allergens)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>E</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2026H1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>The second cohort of the EMBRAVE study is currently enrolling in Brazil, with topline results expected in the first half of 2026.</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Topline</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Phase 3 trial initiated in 2024.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
         <is>
           <t>Enrolling</t>
         </is>
